--- a/xlsx/阿兹海默病_intext.xlsx
+++ b/xlsx/阿兹海默病_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="708">
   <si>
     <t>阿兹海默病</t>
   </si>
@@ -29,25 +29,25 @@
     <t>维基百科</t>
   </si>
   <si>
-    <t>政策_政策_美國_阿兹海默病</t>
+    <t>政策_政策_美国_阿兹海默病</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8%E5%B0%88%E7%A7%91</t>
   </si>
   <si>
-    <t>醫學專科</t>
+    <t>医学专科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E5%85%A7%E7%A7%91</t>
   </si>
   <si>
-    <t>神經內科</t>
+    <t>神经内科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%96%BE%E7%97%85%E8%88%87%E7%9B%B8%E9%97%9C%E5%81%A5%E5%BA%B7%E5%95%8F%E9%A1%8C%E7%B5%B1%E8%A8%88%E5%88%86%E9%A1%9E</t>
   </si>
   <si>
-    <t>國際疾病與相關健康問題統計分類</t>
+    <t>国际疾病与相关健康问题统计分类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ICD-10</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%AD%9F%E5%BE%B7%E7%88%BE%E9%81%BA%E5%82%B3%E5%AD%B8</t>
   </si>
   <si>
-    <t>人類孟德爾遺傳學</t>
+    <t>人类孟德尔遗传学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MedlinePlus</t>
@@ -95,13 +95,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>縮寫</t>
+    <t>缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93</t>
   </si>
   <si>
-    <t>神經</t>
+    <t>神经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%99%BA%E7%97%87</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AD%AB%E5%A6%84</t>
   </si>
   <si>
-    <t>譫妄</t>
+    <t>谵妄</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/mood_swing</t>
@@ -131,43 +131,43 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E6%9C%9F%E8%A8%98%E6%86%B6</t>
   </si>
   <si>
-    <t>長期記憶</t>
+    <t>长期记忆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%90%E5%BE%8C</t>
   </si>
   <si>
-    <t>預後</t>
+    <t>预后</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E9%80%80%E8%A1%8C%E6%80%A7%E7%96%BE%E7%97%85</t>
   </si>
   <si>
-    <t>神經退行性疾病</t>
+    <t>神经退行性疾病</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E5%82%B3</t>
   </si>
   <si>
-    <t>遺傳</t>
+    <t>遗传</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%AD%E9%83%A8%E5%A4%96%E5%82%B7</t>
   </si>
   <si>
-    <t>頭部外傷</t>
+    <t>头部外伤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%86%82%E9%AC%B1%E7%97%87</t>
   </si>
   <si>
-    <t>憂鬱症</t>
+    <t>忧郁症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E8%A1%80%E5%A3%93</t>
   </si>
   <si>
-    <t>高血壓</t>
+    <t>高血压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%84%91</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BF%A4%E8%9B%8B%E7%99%BD</t>
   </si>
   <si>
-    <t>濤蛋白</t>
+    <t>涛蛋白</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cognitive_tests</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8%E5%BD%B1%E5%83%8F</t>
   </si>
   <si>
-    <t>醫學影像</t>
+    <t>医学影像</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%BB%8F%E6%88%90%E5%83%8F</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A3%93%E5%8A%9B</t>
   </si>
   <si>
-    <t>壓力</t>
+    <t>压力</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cognitive_reserve</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>運動</t>
+    <t>运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A5%E8%83%96%E7%97%87</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%A8%E5%BA%8A%E8%A9%A6%E9%A9%97</t>
   </si>
   <si>
-    <t>臨床試驗</t>
+    <t>临床试验</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Caring_for_people_with_dementia</t>
@@ -245,13 +245,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%B8%B8%E7%94%9F%E6%B4%BB%E6%B4%BB%E5%8B%95</t>
   </si>
   <si>
-    <t>日常生活活動</t>
+    <t>日常生活活动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%9D%E8%A6%BA%E5%A4%B1%E8%AA%BF</t>
   </si>
   <si>
-    <t>思覺失調</t>
+    <t>思觉失调</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%97%E7%B2%BE%E7%A5%9E%E7%97%85%E8%8D%AF</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%BE%85%E6%96%AF%C2%B7%E9%98%BF%E8%8C%B2%E6%B5%B7%E9%BB%98</t>
   </si>
   <si>
-    <t>愛羅斯·阿茲海默</t>
+    <t>爱罗斯·阿兹海默</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Early-onset_Alzheimer%27s_disease</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B0%A1%E7%9F%AD%E6%99%BA%E8%83%BD%E6%B8%AC%E9%A9%97</t>
   </si>
   <si>
-    <t>簡短智能測驗</t>
+    <t>简短智能测验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%94%B5%E5%AD%90%E5%8F%91%E5%B0%84%E8%AE%A1%E7%AE%97%E6%9C%BA%E6%96%AD%E5%B1%82%E6%89%AB%E6%8F%8F</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6%E6%96%B7%E5%B1%A4%E6%8E%83%E7%9E%84</t>
   </si>
   <si>
-    <t>電腦斷層掃瞄</t>
+    <t>电脑断层扫瞄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E7%A3%81%E5%85%B1%E6%8C%AF%E6%88%90%E5%83%8F</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94%E5%AD%B8</t>
   </si>
   <si>
-    <t>組織學</t>
+    <t>组织学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
@@ -365,13 +365,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E7%97%85%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>精神病學家</t>
+    <t>精神病学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5</t>
   </si>
   <si>
-    <t>認知</t>
+    <t>认知</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E5%8C%96</t>
@@ -437,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E8%AD%98%E4%B8%8D%E8%83%BD</t>
   </si>
   <si>
-    <t>認識不能</t>
+    <t>认识不能</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Apraxia</t>
@@ -449,9 +449,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%BF%E6%9C%9F%E8%AE%B0%E5%BF%86</t>
   </si>
   <si>
-    <t>长期记忆</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%85%E8%8A%82%E8%AE%B0%E5%BF%86</t>
   </si>
   <si>
@@ -473,7 +470,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%9E%E5%BD%99</t>
   </si>
   <si>
-    <t>詞彙</t>
+    <t>词汇</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Fluency</t>
@@ -509,7 +506,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%83%85%E6%84%9F%E4%B8%8D%E7%A9%A9</t>
   </si>
   <si>
-    <t>情感不穩</t>
+    <t>情感不稳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%90%BD%E7%97%87%E5%80%99%E7%BE%A4</t>
@@ -557,19 +554,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%B3%E8%91%89</t>
   </si>
   <si>
-    <t>顳葉</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%82%E8%91%89</t>
   </si>
   <si>
-    <t>頂葉</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%8D%E8%91%89</t>
   </si>
   <si>
-    <t>額葉</t>
+    <t>额叶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%84%91%E5%9B%9E</t>
@@ -587,15 +578,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%85%A6%E7%9A%AE%E8%B3%AA</t>
   </si>
   <si>
-    <t>大腦皮質</t>
+    <t>大脑皮质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E5%85%83</t>
   </si>
   <si>
-    <t>神經元</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E8%A7%A6</t>
   </si>
   <si>
@@ -605,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8E%E7%B8%AE</t>
   </si>
   <si>
-    <t>萎縮</t>
+    <t>萎缩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%A3%E5%B8%A6%E7%9A%AE%E5%B1%82</t>
@@ -671,13 +659,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B0%E8%83%9E%E9%AA%A8%E6%9E%B6</t>
   </si>
   <si>
-    <t>細胞骨架</t>
+    <t>细胞骨架</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%B8%E7%AA%81</t>
   </si>
   <si>
-    <t>軸突</t>
+    <t>轴突</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A3%B7%E9%85%B8%E5%8C%96</t>
@@ -701,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B0%E8%83%9E%E5%87%8B%E4%BA%A1</t>
   </si>
   <si>
-    <t>細胞凋亡</t>
+    <t>细胞凋亡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BF%E7%B2%92%E4%BD%93</t>
@@ -719,13 +707,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B0%E8%83%9E%E6%BF%80%E7%B4%A0</t>
   </si>
   <si>
-    <t>細胞激素</t>
+    <t>细胞激素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E7%82%8E</t>
   </si>
   <si>
-    <t>發炎</t>
+    <t>发炎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%BB%8F%E8%90%A5%E5%85%BB%E5%9B%A0%E5%AD%90</t>
@@ -773,19 +761,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E7%B4%B0%E8%83%9E</t>
   </si>
   <si>
-    <t>神經細胞</t>
+    <t>神经细胞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%9E%E6%BE%B1%E7%B2%89%E6%96%91</t>
   </si>
   <si>
-    <t>類澱粉斑</t>
+    <t>类淀粉斑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%97%85%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>病理學</t>
+    <t>病理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%87%E8%AF%B4</t>
@@ -803,13 +791,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E5%82%B3%E5%B0%8E%E7%89%A9%E8%B3%AA</t>
   </si>
   <si>
-    <t>神經傳導物質</t>
+    <t>神经传导物质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%9E%E6%BE%B1%E7%B2%89%E8%9B%8B%E7%99%BD</t>
   </si>
   <si>
-    <t>類澱粉蛋白</t>
+    <t>类淀粉蛋白</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Beta_amyloid</t>
@@ -821,7 +809,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E9%A1%9E%E6%BE%B1%E7%B2%89%E8%9B%8B%E7%99%BD%E8%B3%AA</t>
   </si>
   <si>
-    <t>前類澱粉蛋白質</t>
+    <t>前类淀粉蛋白质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E6%B0%8F%E7%BB%BC%E5%90%88%E7%97%87</t>
@@ -845,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%85%8D%E9%AB%94_(%E7%94%9F%E7%89%A9%E5%8C%96%E5%AD%B8)</t>
   </si>
   <si>
-    <t>配體 (生物化學)</t>
+    <t>配体 (生物化学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%97%E4%BD%93_(%E7%94%9F%E7%89%A9%E5%8C%96%E5%AD%A6)</t>
@@ -863,13 +851,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B5%B7%E7%B6%BF%E7%8B%80%E8%85%A6%E7%97%85</t>
   </si>
   <si>
-    <t>牛海綿狀腦病</t>
+    <t>牛海绵状脑病</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E8%B3%88%E6%B0%8F%E7%97%87</t>
   </si>
   <si>
-    <t>庫賈氏症</t>
+    <t>库贾氏症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%BA%E5%9F%BA%E7%AB%AF</t>
@@ -887,7 +875,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E7%AE%A1%E7%9B%B8%E9%97%9C%E8%9B%8B%E7%99%BD%E8%B3%AA</t>
   </si>
   <si>
-    <t>微管相關蛋白質</t>
+    <t>微管相关蛋白质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%95%E7%BA%AF%E7%96%B1%E7%96%B9%E7%97%85%E6%AF%92</t>
@@ -923,7 +911,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E6%96%91%E6%A0%B8</t>
   </si>
   <si>
-    <t>藍斑核</t>
+    <t>蓝斑核</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%9A%AE%E8%B4%A8</t>
@@ -941,7 +929,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E8%86%A0%E8%B3%AA%E7%B4%B0%E8%83%9E</t>
   </si>
   <si>
-    <t>神經膠質細胞</t>
+    <t>神经胶质细胞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%94%AC%E8%8F%9C</t>
@@ -953,7 +941,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E8%97%BB</t>
   </si>
   <si>
-    <t>藍藻</t>
+    <t>蓝藻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%CE%92-%E7%94%B2%E6%B0%A8%E5%9F%BA-L-%E4%B8%99%E6%B0%A8%E9%85%B8</t>
@@ -965,13 +953,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%85%A6</t>
   </si>
   <si>
-    <t>腦</t>
+    <t>脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%AE%E8%8F%9C</t>
   </si>
   <si>
-    <t>髮菜</t>
+    <t>发菜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9E%BA%E6%97%8B%E8%97%BB</t>
@@ -1013,13 +1001,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%80%E4%BC%8A%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>紀伊半島</t>
+    <t>纪伊半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%80%E8%85%A6%E5%B1%8F%E9%9A%9C</t>
   </si>
   <si>
-    <t>血腦屏障</t>
+    <t>血脑屏障</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%99%E9%85%B0%E8%83%86%E7%A2%B1%E9%85%AF%E9%85%B6</t>
@@ -1031,7 +1019,7 @@
     <t>https://zh.wikipedia.org/wiki/N-%E7%94%B2%E5%9F%BA-D-%E5%A4%A9%E9%96%80%E5%86%AC%E8%83%BA%E9%85%B8%E5%8F%97%E9%AB%94</t>
   </si>
   <si>
-    <t>N-甲基-D-天門冬胺酸受體</t>
+    <t>N-甲基-D-天门冬胺酸受体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A3%9F%E5%93%81%E5%92%8C%E8%8D%AF%E7%89%A9%E7%AE%A1%E7%90%86%E5%B1%80</t>
@@ -1067,7 +1055,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%80%E6%B0%A8%E9%85%B8</t>
   </si>
   <si>
-    <t>穀氨酸</t>
+    <t>谷氨酸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%87%91%E6%A3%AE%E6%B0%8F%E7%97%87</t>
@@ -1079,13 +1067,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%85%A6%E7%A1%AB%E8%84%82</t>
   </si>
   <si>
-    <t>腦硫脂</t>
+    <t>脑硫脂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E6%9F%93%E6%80%A7%E8%85%A6%E7%99%BD%E8%B3%AA%E9%80%80%E5%8C%96%E7%97%87</t>
   </si>
   <si>
-    <t>異染性腦白質退化症</t>
+    <t>异染性脑白质退化症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E5%BC%8F%E7%9B%AE%E5%BD%95</t>
@@ -1145,7 +1133,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E4%B8%81%E9%A0%93%E8%88%9E%E8%B9%88%E7%97%87</t>
   </si>
   <si>
-    <t>亨丁頓舞蹈症</t>
+    <t>亨丁顿舞蹈症</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/AIDS_dementia_complex</t>
@@ -1175,43 +1163,43 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E9%96%89%E7%97%87%E5%85%89%E8%AD%9C</t>
   </si>
   <si>
-    <t>自閉症光譜</t>
+    <t>自闭症光谱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E9%96%89%E7%97%87</t>
   </si>
   <si>
-    <t>自閉症</t>
+    <t>自闭症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%96%AF%E4%BC%AF%E6%A0%BC%E7%97%87%E5%80%99%E7%BE%A4</t>
   </si>
   <si>
-    <t>亞斯伯格症候群</t>
+    <t>亚斯伯格症候群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E8%80%85%E7%97%87%E5%80%99%E7%BE%A4</t>
   </si>
   <si>
-    <t>學者症候群</t>
+    <t>学者症候群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%85%E5%88%86%E9%A1%9E%E7%9A%84%E5%BB%A3%E6%B3%9B%E6%80%A7%E7%99%BC%E5%B1%95%E9%9A%9C%E7%A4%99</t>
   </si>
   <si>
-    <t>待分類的廣泛性發展障礙</t>
+    <t>待分类的广泛性发展障碍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%9F%E8%83%BD%E8%87%AA%E9%96%89%E7%97%87</t>
   </si>
   <si>
-    <t>高功能自閉症</t>
+    <t>高功能自闭症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%A6%E9%9C%87%E7%9B%AA%E7%97%87%E5%80%99%E7%BE%A4</t>
   </si>
   <si>
-    <t>腦震盪症候群</t>
+    <t>脑震荡症候群</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Organic_brain_syndrome</t>
@@ -1235,7 +1223,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%A5%E7%89%A9%E9%81%8E%E9%87%8F</t>
   </si>
   <si>
-    <t>藥物過量</t>
+    <t>药物过量</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BA%AB%E4%BD%93%E4%BE%9D%E8%B5%96</t>
@@ -1247,7 +1235,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E8%B3%AA%E4%BE%9D%E8%B3%B4</t>
   </si>
   <si>
-    <t>物質依賴</t>
+    <t>物质依赖</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Rebound_effect</t>
@@ -1265,7 +1253,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%A5%E7%89%A9%E6%88%92%E6%96%B7</t>
   </si>
   <si>
-    <t>藥物戒斷</t>
+    <t>药物戒断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E5%88%86%E8%A3%82%E7%97%87</t>
@@ -1277,7 +1265,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E8%A3%82%E6%80%A7%E4%BA%BA%E6%A0%BC%E9%9A%9C%E7%A4%99</t>
   </si>
   <si>
-    <t>分裂性人格障礙</t>
+    <t>分裂性人格障碍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A6%84%E6%83%B3%E7%97%87</t>
@@ -1319,7 +1307,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%83%85%E6%84%9F%E9%9A%9C%E7%A4%99</t>
   </si>
   <si>
-    <t>情感障礙</t>
+    <t>情感障碍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%82%E8%BA%81</t>
@@ -1331,7 +1319,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BA%81%E9%AC%B1%E7%97%87</t>
   </si>
   <si>
-    <t>躁鬱症</t>
+    <t>躁郁症</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Bipolar_I_disorder</t>
@@ -1349,7 +1337,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AA%E7%92%B0%E6%80%A7%E6%83%85%E6%84%9F%E7%97%87</t>
   </si>
   <si>
-    <t>循環性情感症</t>
+    <t>循环性情感症</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Bipolar_disorder_not_otherwise_specified</t>
@@ -1415,13 +1403,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%87%BC%E7%97%87</t>
   </si>
   <si>
-    <t>恐懼症</t>
+    <t>恐惧症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%A0%B4%E6%81%90%E6%87%BC%E7%97%87</t>
   </si>
   <si>
-    <t>廣場恐懼症</t>
+    <t>广场恐惧症</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_anxiety</t>
@@ -1433,7 +1421,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BA%A4%E6%81%90%E6%87%BC%E7%97%87</t>
   </si>
   <si>
-    <t>社交恐懼症</t>
+    <t>社交恐惧症</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Anthropophobia</t>
@@ -1469,7 +1457,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%85%8C%E7%99%BC%E4%BD%9C</t>
   </si>
   <si>
-    <t>恐慌發作</t>
+    <t>恐慌发作</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BF%E6%B3%9B%E6%80%A7%E7%84%A6%E8%99%91%E7%97%87</t>
@@ -1493,7 +1481,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E5%82%B7%E5%BE%8C%E5%BF%83%E7%90%86%E5%A3%93%E5%8A%9B%E7%B7%8A%E5%BC%B5%E7%97%87%E5%80%99%E7%BE%A4</t>
   </si>
   <si>
-    <t>創傷後心理壓力緊張症候群</t>
+    <t>创伤后心理压力紧张症候群</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Adjustment_disorder</t>
@@ -1511,7 +1499,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BA%AB%E9%AB%94%E7%95%B8%E5%BD%A2%E6%81%90%E6%87%BC%E7%97%87</t>
   </si>
   <si>
-    <t>身體畸形恐懼症</t>
+    <t>身体畸形恐惧症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%96%91%E7%97%85%E7%97%87</t>
@@ -1559,7 +1547,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E8%A1%B0%E5%BC%B1</t>
   </si>
   <si>
-    <t>神經衰弱</t>
+    <t>神经衰弱</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mass_psychogenic_illness</t>
@@ -1571,13 +1559,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E9%9B%A2%E7%97%87</t>
   </si>
   <si>
-    <t>解離症</t>
+    <t>解离症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E9%9B%A2%E6%80%A7%E4%BA%BA%E6%A0%BC%E7%96%BE%E6%82%A3</t>
   </si>
   <si>
-    <t>解離性人格疾患</t>
+    <t>解离性人格疾患</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Psychogenic_amnesia</t>
@@ -1595,7 +1583,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%A0%BC%E8%A7%A3%E9%AB%94%E9%9A%9C%E7%A4%99</t>
   </si>
   <si>
-    <t>人格解體障礙</t>
+    <t>人格解体障碍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%9B%E9%A3%9F%E9%9A%9C%E7%A2%8D</t>
@@ -1613,7 +1601,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E6%80%A7%E6%9A%B4%E9%A3%9F%E7%97%87</t>
   </si>
   <si>
-    <t>神經性暴食症</t>
+    <t>神经性暴食症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%88%8D%E7%BB%BC%E5%90%88%E7%97%87</t>
@@ -1661,7 +1649,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9C%E9%A9%9A</t>
   </si>
   <si>
-    <t>夜驚</t>
+    <t>夜惊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%B6%E6%A2%A6</t>
@@ -1685,7 +1673,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E6%85%BE%E4%BA%A2%E9%80%B2</t>
   </si>
   <si>
-    <t>性慾亢進</t>
+    <t>性慾亢进</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7%E6%80%A7%E5%8A%9F%E8%83%BD%E9%9A%9C%E7%A2%8D</t>
@@ -1715,7 +1703,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A9%E7%99%BC%E6%80%A7%E5%B0%84%E7%B2%BE</t>
   </si>
   <si>
-    <t>早發性射精</t>
+    <t>早发性射精</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sexual_anhedonia</t>
@@ -1727,7 +1715,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B0%E9%81%93%E7%97%99%E6%94%A3</t>
   </si>
   <si>
-    <t>陰道痙攣</t>
+    <t>阴道痉挛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E4%BA%A4%E7%96%BC%E7%97%9B</t>
@@ -1757,7 +1745,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E4%B8%8D%E5%AE%89%E7%97%87</t>
   </si>
   <si>
-    <t>性別不安症</t>
+    <t>性别不安症</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sexual_maturation_disorder</t>
@@ -1781,13 +1769,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%81%8F%E9%9B%A2</t>
   </si>
   <si>
-    <t>性偏離</t>
+    <t>性偏离</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%BA%E8%A6%96%E7%97%87</t>
   </si>
   <si>
-    <t>窺視症</t>
+    <t>窥视症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%8B%E7%89%A9%E7%99%96</t>
@@ -1799,7 +1787,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%A0%BC%E9%9A%9C%E7%A4%99</t>
   </si>
   <si>
-    <t>人格障礙</t>
+    <t>人格障碍</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Impulse_control_disorder</t>
@@ -1811,7 +1799,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8A%E7%9B%9C%E7%99%96</t>
   </si>
   <si>
-    <t>竊盜癖</t>
+    <t>窃盗癖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%94%E6%AF%9B%E7%99%96</t>
@@ -1841,7 +1829,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%82%BA%E7%96%BE%E6%82%A3</t>
   </si>
   <si>
-    <t>人為疾患</t>
+    <t>人为疾患</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E4%B9%94%E6%A3%AE%E7%BB%BC%E5%90%88%E5%BE%81</t>
@@ -1859,7 +1847,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E8%83%BD%E9%9A%9C%E7%A4%99</t>
   </si>
   <si>
-    <t>智能障礙</t>
+    <t>智能障碍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/X%E6%9F%93%E8%89%B2%E4%BD%93%E8%BF%9E%E9%94%81%E7%B2%BE%E7%A5%9E%E5%8F%91%E8%82%B2%E8%BF%9F%E6%BB%9E</t>
@@ -1889,13 +1877,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E6%B3%9B%E6%80%A7%E7%99%BC%E5%B1%95%E9%9A%9C%E7%A4%99</t>
   </si>
   <si>
-    <t>廣泛性發展障礙</t>
+    <t>广泛性发展障碍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A8%E6%84%8F%E5%8A%9B%E4%B8%8D%E8%B6%B3%E9%81%8E%E5%8B%95%E7%97%87</t>
   </si>
   <si>
-    <t>注意力不足過動症</t>
+    <t>注意力不足过动症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E8%A1%8C%E9%9A%9C%E7%A2%8D</t>
@@ -1949,7 +1937,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E9%9F%B3%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>發音問題</t>
+    <t>发音问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A3%E5%90%83</t>
@@ -1985,7 +1973,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%87%E6%80%A7%E6%87%B7%E5%AD%95</t>
   </si>
   <si>
-    <t>假性懷孕</t>
+    <t>假性怀孕</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Intermittent_explosive_disorder</t>
@@ -2015,7 +2003,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%AD%AF%E7%88%BE-%E5%B8%83%E8%A5%BF%E7%97%87%E5%80%99%E7%BE%A4</t>
   </si>
   <si>
-    <t>克魯爾-布西症候群</t>
+    <t>克鲁尔-布西症候群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%97%E4%BC%A0%E6%80%A7%E4%BB%A3%E8%B0%A2%E7%BC%BA%E9%99%B7</t>
@@ -2039,7 +2027,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B1%E7%B2%89%E6%A8%A3%E8%9B%8B%E7%99%BD</t>
   </si>
   <si>
-    <t>澱粉樣蛋白</t>
+    <t>淀粉样蛋白</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%CE%922%E5%BE%AE%E7%90%83%E8%9B%8B%E7%99%BD</t>
@@ -2057,7 +2045,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%8D%E9%88%A3%E7%B4%A0</t>
   </si>
   <si>
-    <t>降鈣素</t>
+    <t>降钙素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%AC%E4%B9%B3%E7%B4%A0</t>
@@ -2069,7 +2057,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E6%88%BF%E5%88%A9%E9%88%89%E8%82%BD</t>
   </si>
   <si>
-    <t>心房利鈉肽</t>
+    <t>心房利钠肽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%B1%E6%8A%91%E7%B4%A0C</t>
@@ -2081,37 +2069,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E6%97%8F%E6%80%A7%E6%BE%B1%E7%B2%89%E6%A8%A3%E7%89%A9%E5%A4%9A%E7%99%BC%E6%80%A7%E7%A5%9E%E7%B6%93%E7%97%85%E8%AE%8A</t>
   </si>
   <si>
-    <t>家族性澱粉樣物多發性神經病變</t>
+    <t>家族性淀粉样物多发性神经病变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E8%87%9F</t>
   </si>
   <si>
-    <t>心臟</t>
+    <t>心脏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%8E</t>
   </si>
   <si>
-    <t>腎</t>
+    <t>肾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E6%97%8F%E6%80%A7%E8%85%8E%E6%BE%B1%E7%B2%89%E6%A8%A3%E8%AE%8A</t>
   </si>
   <si>
-    <t>家族性腎澱粉樣變</t>
+    <t>家族性肾淀粉样变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%9A%AE%E8%86%9A</t>
   </si>
   <si>
-    <t>人類皮膚</t>
+    <t>人类皮肤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%88%86%E6%B3%8C%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>內分泌系統</t>
+    <t>内分泌系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B2%E7%8A%B6%E8%85%BA</t>
@@ -2123,13 +2111,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%B2%E7%8B%80%E8%85%BA%E9%AB%93%E8%B3%AA%E7%99%8C</t>
   </si>
   <si>
-    <t>甲狀腺髓質癌</t>
+    <t>甲状腺髓质癌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%A6%E4%B8%8B%E5%9E%82%E9%AB%94</t>
   </si>
   <si>
-    <t>腦下垂體</t>
+    <t>脑下垂体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%B0%E8%84%8F</t>
@@ -4754,7 +4742,7 @@
         <v>143</v>
       </c>
       <c r="F78" t="s">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -4780,10 +4768,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>144</v>
+      </c>
+      <c r="F79" t="s">
         <v>145</v>
-      </c>
-      <c r="F79" t="s">
-        <v>146</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4809,10 +4797,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>146</v>
+      </c>
+      <c r="F80" t="s">
         <v>147</v>
-      </c>
-      <c r="F80" t="s">
-        <v>148</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4838,10 +4826,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>148</v>
+      </c>
+      <c r="F81" t="s">
         <v>149</v>
-      </c>
-      <c r="F81" t="s">
-        <v>150</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4867,10 +4855,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>150</v>
+      </c>
+      <c r="F82" t="s">
         <v>151</v>
-      </c>
-      <c r="F82" t="s">
-        <v>152</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -4896,10 +4884,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>152</v>
+      </c>
+      <c r="F83" t="s">
         <v>153</v>
-      </c>
-      <c r="F83" t="s">
-        <v>154</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4925,10 +4913,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>154</v>
+      </c>
+      <c r="F84" t="s">
         <v>155</v>
-      </c>
-      <c r="F84" t="s">
-        <v>156</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4954,10 +4942,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>156</v>
+      </c>
+      <c r="F85" t="s">
         <v>157</v>
-      </c>
-      <c r="F85" t="s">
-        <v>158</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4983,10 +4971,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>158</v>
+      </c>
+      <c r="F86" t="s">
         <v>159</v>
-      </c>
-      <c r="F86" t="s">
-        <v>160</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5012,10 +5000,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>160</v>
+      </c>
+      <c r="F87" t="s">
         <v>161</v>
-      </c>
-      <c r="F87" t="s">
-        <v>162</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5041,10 +5029,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>162</v>
+      </c>
+      <c r="F88" t="s">
         <v>163</v>
-      </c>
-      <c r="F88" t="s">
-        <v>164</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5070,10 +5058,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>164</v>
+      </c>
+      <c r="F89" t="s">
         <v>165</v>
-      </c>
-      <c r="F89" t="s">
-        <v>166</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5099,10 +5087,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>166</v>
+      </c>
+      <c r="F90" t="s">
         <v>167</v>
-      </c>
-      <c r="F90" t="s">
-        <v>168</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5128,10 +5116,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>168</v>
+      </c>
+      <c r="F91" t="s">
         <v>169</v>
-      </c>
-      <c r="F91" t="s">
-        <v>170</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5157,10 +5145,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>170</v>
+      </c>
+      <c r="F92" t="s">
         <v>171</v>
-      </c>
-      <c r="F92" t="s">
-        <v>172</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5186,10 +5174,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>172</v>
+      </c>
+      <c r="F93" t="s">
         <v>173</v>
-      </c>
-      <c r="F93" t="s">
-        <v>174</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -5215,10 +5203,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>174</v>
+      </c>
+      <c r="F94" t="s">
         <v>175</v>
-      </c>
-      <c r="F94" t="s">
-        <v>176</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5244,10 +5232,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>176</v>
+      </c>
+      <c r="F95" t="s">
         <v>177</v>
-      </c>
-      <c r="F95" t="s">
-        <v>178</v>
       </c>
       <c r="G95" t="n">
         <v>7</v>
@@ -5273,10 +5261,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F96" t="s">
-        <v>180</v>
+        <v>94</v>
       </c>
       <c r="G96" t="n">
         <v>3</v>
@@ -5302,10 +5290,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F97" t="s">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5331,10 +5319,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F98" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -5360,10 +5348,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F99" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5389,10 +5377,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F100" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5418,10 +5406,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F101" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G101" t="n">
         <v>3</v>
@@ -5447,10 +5435,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F102" t="s">
-        <v>192</v>
+        <v>88</v>
       </c>
       <c r="G102" t="n">
         <v>13</v>
@@ -5476,10 +5464,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F103" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5505,10 +5493,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F104" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G104" t="n">
         <v>5</v>
@@ -5534,10 +5522,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F105" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5592,10 +5580,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F107" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -5621,10 +5609,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F108" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5650,10 +5638,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F109" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5679,10 +5667,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F110" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5708,10 +5696,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F111" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5737,10 +5725,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F112" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5766,10 +5754,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F113" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5795,10 +5783,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F114" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5824,10 +5812,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F115" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G115" t="n">
         <v>9</v>
@@ -5853,10 +5841,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F116" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5882,10 +5870,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F117" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5911,10 +5899,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F118" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G118" t="n">
         <v>4</v>
@@ -5940,10 +5928,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F119" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5969,10 +5957,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F120" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5998,10 +5986,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F121" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6027,10 +6015,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F122" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6056,10 +6044,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F123" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6085,10 +6073,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F124" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -6114,10 +6102,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F125" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G125" t="n">
         <v>4</v>
@@ -6143,10 +6131,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F126" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -6172,10 +6160,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F127" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6201,10 +6189,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F128" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G128" t="n">
         <v>6</v>
@@ -6230,10 +6218,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F129" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6259,10 +6247,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F130" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G130" t="n">
         <v>3</v>
@@ -6288,10 +6276,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F131" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6317,10 +6305,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F132" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G132" t="n">
         <v>5</v>
@@ -6346,10 +6334,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F133" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G133" t="n">
         <v>10</v>
@@ -6375,10 +6363,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F134" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6404,10 +6392,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F135" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G135" t="n">
         <v>6</v>
@@ -6433,10 +6421,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F136" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6462,10 +6450,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F137" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G137" t="n">
         <v>3</v>
@@ -6491,10 +6479,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F138" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -6520,10 +6508,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F139" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G139" t="n">
         <v>40</v>
@@ -6549,10 +6537,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F140" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6578,10 +6566,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F141" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G141" t="n">
         <v>3</v>
@@ -6607,10 +6595,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F142" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6636,10 +6624,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F143" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G143" t="n">
         <v>4</v>
@@ -6665,10 +6653,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F144" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G144" t="n">
         <v>3</v>
@@ -6694,10 +6682,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F145" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -6723,10 +6711,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F146" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G146" t="n">
         <v>9</v>
@@ -6752,10 +6740,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F147" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6781,10 +6769,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F148" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6810,10 +6798,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F149" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6839,10 +6827,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F150" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6868,10 +6856,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F151" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G151" t="n">
         <v>4</v>
@@ -6897,10 +6885,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F152" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G152" t="n">
         <v>5</v>
@@ -6926,10 +6914,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F153" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6955,10 +6943,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F154" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G154" t="n">
         <v>3</v>
@@ -6984,10 +6972,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F155" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7013,10 +7001,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F156" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -7042,10 +7030,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F157" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G157" t="n">
         <v>3</v>
@@ -7071,10 +7059,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F158" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -7100,10 +7088,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F159" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7129,10 +7117,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F160" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7158,10 +7146,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F161" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G161" t="n">
         <v>3</v>
@@ -7187,10 +7175,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F162" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7216,10 +7204,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F163" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -7245,10 +7233,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F164" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -7274,10 +7262,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F165" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G165" t="n">
         <v>61</v>
@@ -7303,10 +7291,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F166" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -7332,10 +7320,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F167" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7361,10 +7349,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F168" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7390,10 +7378,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F169" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G169" t="n">
         <v>8</v>
@@ -7419,10 +7407,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F170" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G170" t="n">
         <v>5</v>
@@ -7448,10 +7436,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -7477,10 +7465,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -7506,10 +7494,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F173" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7535,10 +7523,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F174" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7564,10 +7552,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F175" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7593,10 +7581,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F176" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7622,10 +7610,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F177" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7651,10 +7639,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F178" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -7680,10 +7668,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F179" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7709,10 +7697,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F180" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7738,10 +7726,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F181" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -7767,10 +7755,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F182" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7796,10 +7784,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F183" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G183" t="n">
         <v>3</v>
@@ -7825,10 +7813,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F184" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -7854,10 +7842,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F185" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7883,10 +7871,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F186" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7912,10 +7900,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F187" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G187" t="n">
         <v>4</v>
@@ -7941,10 +7929,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F188" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G188" t="n">
         <v>16</v>
@@ -7970,10 +7958,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F189" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G189" t="n">
         <v>3</v>
@@ -7999,10 +7987,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F190" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G190" t="n">
         <v>88</v>
@@ -8028,10 +8016,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F191" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8057,10 +8045,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F192" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8086,10 +8074,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F193" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8115,10 +8103,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F194" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8144,10 +8132,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F195" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8173,10 +8161,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F196" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8202,10 +8190,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F197" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8231,10 +8219,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F198" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8260,10 +8248,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F199" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8289,10 +8277,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F200" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -8318,10 +8306,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F201" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G201" t="n">
         <v>4</v>
@@ -8347,10 +8335,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F202" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8376,10 +8364,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F203" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8405,10 +8393,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F204" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8434,10 +8422,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F205" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8463,10 +8451,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F206" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8492,10 +8480,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F207" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8521,10 +8509,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F208" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8550,10 +8538,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F209" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8579,10 +8567,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F210" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8608,10 +8596,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F211" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8637,10 +8625,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F212" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8666,10 +8654,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F213" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -8695,10 +8683,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F214" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -8724,10 +8712,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F215" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8753,10 +8741,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F216" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -8782,10 +8770,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F217" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8811,10 +8799,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F218" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -8840,10 +8828,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F219" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -8869,10 +8857,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F220" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8898,10 +8886,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F221" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8927,10 +8915,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F222" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -8956,10 +8944,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F223" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8985,10 +8973,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F224" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9014,10 +9002,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F225" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9043,10 +9031,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F226" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9072,10 +9060,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F227" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9101,10 +9089,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F228" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9130,10 +9118,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F229" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9159,10 +9147,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F230" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9188,10 +9176,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F231" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9217,10 +9205,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F232" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9246,10 +9234,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F233" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9275,10 +9263,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F234" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9304,10 +9292,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F235" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9333,10 +9321,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F236" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9362,10 +9350,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F237" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G237" t="n">
         <v>3</v>
@@ -9391,10 +9379,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F238" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G238" t="n">
         <v>2</v>
@@ -9420,10 +9408,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F239" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -9449,10 +9437,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F240" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G240" t="n">
         <v>5</v>
@@ -9478,10 +9466,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F241" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9507,10 +9495,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F242" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9536,10 +9524,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F243" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9565,10 +9553,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F244" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9594,10 +9582,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F245" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9623,10 +9611,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F246" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9652,10 +9640,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F247" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9681,10 +9669,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F248" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9710,10 +9698,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F249" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9739,10 +9727,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F250" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9768,10 +9756,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F251" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9797,10 +9785,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F252" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9826,10 +9814,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F253" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9855,10 +9843,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F254" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G254" t="n">
         <v>3</v>
@@ -9884,10 +9872,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F255" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G255" t="n">
         <v>2</v>
@@ -9913,10 +9901,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F256" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9942,10 +9930,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F257" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9971,10 +9959,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F258" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G258" t="n">
         <v>2</v>
@@ -10000,10 +9988,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F259" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G259" t="n">
         <v>2</v>
@@ -10029,10 +10017,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F260" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10058,10 +10046,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F261" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10087,10 +10075,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F262" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10116,10 +10104,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F263" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10145,10 +10133,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F264" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10174,10 +10162,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F265" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
@@ -10203,10 +10191,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F266" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10232,10 +10220,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F267" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10261,10 +10249,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F268" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G268" t="n">
         <v>2</v>
@@ -10290,10 +10278,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F269" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G269" t="n">
         <v>2</v>
@@ -10319,10 +10307,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F270" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10348,10 +10336,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F271" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10377,10 +10365,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F272" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10406,10 +10394,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F273" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10435,10 +10423,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F274" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10464,10 +10452,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F275" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10493,10 +10481,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F276" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10522,10 +10510,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F277" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10551,10 +10539,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F278" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G278" t="n">
         <v>3</v>
@@ -10580,10 +10568,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F279" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G279" t="n">
         <v>2</v>
@@ -10609,10 +10597,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F280" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10638,10 +10626,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F281" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10667,10 +10655,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F282" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10696,10 +10684,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F283" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G283" t="n">
         <v>2</v>
@@ -10725,10 +10713,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F284" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G284" t="n">
         <v>2</v>
@@ -10754,10 +10742,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F285" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G285" t="n">
         <v>2</v>
@@ -10783,10 +10771,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F286" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10812,10 +10800,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F287" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10841,10 +10829,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F288" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10870,10 +10858,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F289" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10899,10 +10887,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F290" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10928,10 +10916,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F291" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G291" t="n">
         <v>2</v>
@@ -10957,10 +10945,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F292" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G292" t="n">
         <v>2</v>
@@ -10986,10 +10974,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F293" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11015,10 +11003,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F294" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G294" t="n">
         <v>2</v>
@@ -11044,10 +11032,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F295" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G295" t="n">
         <v>3</v>
@@ -11073,10 +11061,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F296" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11102,10 +11090,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F297" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11131,10 +11119,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F298" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11160,10 +11148,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F299" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11189,10 +11177,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F300" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11218,10 +11206,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F301" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11247,10 +11235,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F302" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G302" t="n">
         <v>2</v>
@@ -11276,10 +11264,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F303" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G303" t="n">
         <v>2</v>
@@ -11305,10 +11293,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F304" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G304" t="n">
         <v>2</v>
@@ -11334,10 +11322,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F305" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11363,10 +11351,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F306" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11392,10 +11380,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F307" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11421,10 +11409,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F308" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G308" t="n">
         <v>2</v>
@@ -11450,10 +11438,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F309" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11479,10 +11467,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F310" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11508,10 +11496,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F311" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11537,10 +11525,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F312" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11566,10 +11554,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F313" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11595,10 +11583,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F314" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G314" t="n">
         <v>2</v>
@@ -11624,10 +11612,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F315" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11653,10 +11641,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F316" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11682,10 +11670,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F317" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11711,10 +11699,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F318" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11740,10 +11728,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F319" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11769,10 +11757,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F320" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G320" t="n">
         <v>2</v>
@@ -11798,10 +11786,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F321" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11827,10 +11815,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F322" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11856,10 +11844,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F323" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G323" t="n">
         <v>2</v>
@@ -11885,10 +11873,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F324" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11914,10 +11902,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F325" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11943,10 +11931,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F326" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11972,10 +11960,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F327" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12001,10 +11989,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F328" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12030,10 +12018,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F329" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12059,10 +12047,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F330" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12088,10 +12076,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F331" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12117,10 +12105,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F332" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12146,10 +12134,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F333" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12175,10 +12163,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F334" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12204,10 +12192,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F335" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12233,10 +12221,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F336" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12262,10 +12250,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F337" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12291,10 +12279,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F338" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12320,10 +12308,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F339" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12349,10 +12337,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F340" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="G340" t="n">
         <v>2</v>
@@ -12378,10 +12366,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F341" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G341" t="n">
         <v>2</v>
@@ -12407,10 +12395,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F342" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G342" t="n">
         <v>2</v>
@@ -12436,10 +12424,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F343" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G343" t="n">
         <v>2</v>
@@ -12465,10 +12453,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F344" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12494,10 +12482,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F345" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12523,10 +12511,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F346" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12552,10 +12540,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F347" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12581,10 +12569,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="F348" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G348" t="n">
         <v>4</v>
@@ -12610,10 +12598,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F349" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="G349" t="n">
         <v>2</v>
@@ -12639,10 +12627,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F350" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="G350" t="n">
         <v>18</v>
@@ -12668,10 +12656,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F351" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="G351" t="n">
         <v>2</v>
@@ -12697,10 +12685,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F352" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G352" t="n">
         <v>2</v>
@@ -12726,10 +12714,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="F353" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G353" t="n">
         <v>2</v>
@@ -12755,10 +12743,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F354" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="G354" t="n">
         <v>2</v>
@@ -12784,10 +12772,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F355" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12813,10 +12801,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F356" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="G356" t="n">
         <v>15</v>
@@ -12842,10 +12830,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F357" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G357" t="n">
         <v>6</v>
@@ -12871,10 +12859,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F358" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -12900,10 +12888,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F359" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G359" t="n">
         <v>3</v>
@@ -12929,10 +12917,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F360" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -12958,10 +12946,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F361" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -12987,10 +12975,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F362" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13016,10 +13004,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F363" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13045,10 +13033,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F364" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13074,10 +13062,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="F365" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13103,10 +13091,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="F366" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="G366" t="n">
         <v>5</v>
@@ -13132,10 +13120,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="F367" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
